--- a/data_dummy/Dummy_data_OA_Benthic Data Template.xlsx
+++ b/data_dummy/Dummy_data_OA_Benthic Data Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ub.edu.bz\home\employee\wilbert.castillo\My Documents\GitHub\GOAP-condition-account-belize\data_dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7148FC-4C41-4F81-9D47-99BD496ED14D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C12FF48-1098-43FA-82E8-AE4ADB7F1641}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me!!!" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="407">
   <si>
     <t>The validation rules in this workbook guide the proper entry of field data for ocean accounting opening and closing periods. These rules ensure that all information is entered accurately, consistently, and in a format that supports standardized reporting. Users must follow these rules to maintain data quality, improve reliability of analyses, and support comparability, integration across sites, timelines, and national ocean accounting cycles.
 All data entered into this template should reflect raw observations collected in the field. Do not clean, average, adjust, interpret, or transform values before entering them. This template serves as the first step in the ocean accounting process, where raw ecological observations are digitized and stored in a structured format for further processing, quality assurance, and analysis.</t>
@@ -1345,7 +1345,10 @@
     <t>Sea Cucumber</t>
   </si>
   <si>
-    <t>Other Urchin</t>
+    <t>Other Urchins</t>
+  </si>
+  <si>
+    <t>Other Urchinss</t>
   </si>
 </sst>
 </file>
@@ -1503,12 +1506,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1780,131 +1783,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
+      <c r="A1" s="22"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="21"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4861,7 +4864,7 @@
       </c>
       <c r="C9" s="4">
         <f ca="1">RANDBETWEEN(0,65)</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D9" s="15">
         <v>17.7256</v>
@@ -4900,9 +4903,9 @@
   </sheetPr>
   <dimension ref="A1:P601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4974,7 +4977,7 @@
       <c r="C2" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E2" s="4">
@@ -5021,7 +5024,7 @@
       <c r="C3" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E3" s="4">
@@ -5068,7 +5071,7 @@
       <c r="C4" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E4" s="4">
@@ -5115,7 +5118,7 @@
       <c r="C5" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E5" s="4">
@@ -5162,7 +5165,7 @@
       <c r="C6" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E6" s="4">
@@ -5209,7 +5212,7 @@
       <c r="C7" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E7" s="4">
@@ -5256,7 +5259,7 @@
       <c r="C8" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E8" s="4">
@@ -5303,7 +5306,7 @@
       <c r="C9" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E9" s="4">
@@ -5350,7 +5353,7 @@
       <c r="C10" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E10" s="4">
@@ -5397,7 +5400,7 @@
       <c r="C11" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E11" s="4">
@@ -5444,7 +5447,7 @@
       <c r="C12" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E12" s="4">
@@ -5491,7 +5494,7 @@
       <c r="C13" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E13" s="4">
@@ -5538,7 +5541,7 @@
       <c r="C14" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E14" s="4">
@@ -5585,7 +5588,7 @@
       <c r="C15" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E15" s="4">
@@ -5632,7 +5635,7 @@
       <c r="C16" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E16" s="4">
@@ -5679,7 +5682,7 @@
       <c r="C17" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E17" s="4">
@@ -5726,7 +5729,7 @@
       <c r="C18" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E18" s="4">
@@ -5773,7 +5776,7 @@
       <c r="C19" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E19" s="4">
@@ -5820,7 +5823,7 @@
       <c r="C20" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E20" s="4">
@@ -5867,7 +5870,7 @@
       <c r="C21" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E21" s="4">
@@ -5914,7 +5917,7 @@
       <c r="C22" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E22" s="4">
@@ -5961,7 +5964,7 @@
       <c r="C23" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E23" s="4">
@@ -6008,7 +6011,7 @@
       <c r="C24" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E24" s="4">
@@ -6055,7 +6058,7 @@
       <c r="C25" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E25" s="4">
@@ -6102,7 +6105,7 @@
       <c r="C26" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E26" s="4">
@@ -6149,7 +6152,7 @@
       <c r="C27" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E27" s="4">
@@ -6196,7 +6199,7 @@
       <c r="C28" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E28" s="4">
@@ -6243,7 +6246,7 @@
       <c r="C29" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E29" s="4">
@@ -6290,7 +6293,7 @@
       <c r="C30" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E30" s="4">
@@ -6337,7 +6340,7 @@
       <c r="C31" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E31" s="4">
@@ -6384,7 +6387,7 @@
       <c r="C32" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E32" s="4">
@@ -6431,7 +6434,7 @@
       <c r="C33" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E33" s="4">
@@ -6478,7 +6481,7 @@
       <c r="C34" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E34" s="4">
@@ -6525,7 +6528,7 @@
       <c r="C35" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E35" s="4">
@@ -6572,7 +6575,7 @@
       <c r="C36" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E36" s="4">
@@ -6619,7 +6622,7 @@
       <c r="C37" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E37" s="4">
@@ -6666,7 +6669,7 @@
       <c r="C38" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E38" s="4">
@@ -6713,7 +6716,7 @@
       <c r="C39" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E39" s="4">
@@ -6760,7 +6763,7 @@
       <c r="C40" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E40" s="4">
@@ -6807,7 +6810,7 @@
       <c r="C41" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E41" s="4">
@@ -6854,7 +6857,7 @@
       <c r="C42" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E42" s="4">
@@ -6901,7 +6904,7 @@
       <c r="C43" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E43" s="4">
@@ -6948,7 +6951,7 @@
       <c r="C44" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E44" s="4">
@@ -6995,7 +6998,7 @@
       <c r="C45" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E45" s="4">
@@ -7042,7 +7045,7 @@
       <c r="C46" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E46" s="4">
@@ -7089,7 +7092,7 @@
       <c r="C47" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E47" s="4">
@@ -7136,7 +7139,7 @@
       <c r="C48" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E48" s="4">
@@ -7183,7 +7186,7 @@
       <c r="C49" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E49" s="4">
@@ -7230,7 +7233,7 @@
       <c r="C50" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E50" s="4">
@@ -7277,7 +7280,7 @@
       <c r="C51" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E51" s="4">
@@ -7324,7 +7327,7 @@
       <c r="C52" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E52" s="4">
@@ -7371,7 +7374,7 @@
       <c r="C53" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E53" s="4">
@@ -7418,7 +7421,7 @@
       <c r="C54" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E54" s="4">
@@ -7465,7 +7468,7 @@
       <c r="C55" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E55" s="4">
@@ -7512,7 +7515,7 @@
       <c r="C56" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E56" s="4">
@@ -7559,7 +7562,7 @@
       <c r="C57" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E57" s="4">
@@ -7606,7 +7609,7 @@
       <c r="C58" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E58" s="4">
@@ -7653,7 +7656,7 @@
       <c r="C59" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E59" s="4">
@@ -7700,7 +7703,7 @@
       <c r="C60" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E60" s="4">
@@ -7747,7 +7750,7 @@
       <c r="C61" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E61" s="4">
@@ -7794,7 +7797,7 @@
       <c r="C62" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E62" s="4">
@@ -7841,7 +7844,7 @@
       <c r="C63" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E63" s="4">
@@ -7888,7 +7891,7 @@
       <c r="C64" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D64" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E64" s="4">
@@ -7935,7 +7938,7 @@
       <c r="C65" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D65" s="24">
+      <c r="D65" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E65" s="4">
@@ -7982,7 +7985,7 @@
       <c r="C66" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D66" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E66" s="4">
@@ -8029,7 +8032,7 @@
       <c r="C67" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E67" s="4">
@@ -8076,7 +8079,7 @@
       <c r="C68" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D68" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E68" s="4">
@@ -8123,7 +8126,7 @@
       <c r="C69" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E69" s="4">
@@ -8170,7 +8173,7 @@
       <c r="C70" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E70" s="4">
@@ -8217,7 +8220,7 @@
       <c r="C71" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E71" s="4">
@@ -8264,7 +8267,7 @@
       <c r="C72" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E72" s="4">
@@ -8311,7 +8314,7 @@
       <c r="C73" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E73" s="4">
@@ -8358,7 +8361,7 @@
       <c r="C74" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E74" s="4">
@@ -8405,7 +8408,7 @@
       <c r="C75" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D75" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E75" s="4">
@@ -8452,7 +8455,7 @@
       <c r="C76" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E76" s="4">
@@ -8499,7 +8502,7 @@
       <c r="C77" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E77" s="4">
@@ -8546,7 +8549,7 @@
       <c r="C78" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D78" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E78" s="4">
@@ -8593,7 +8596,7 @@
       <c r="C79" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E79" s="4">
@@ -8640,7 +8643,7 @@
       <c r="C80" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D80" s="24">
+      <c r="D80" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E80" s="4">
@@ -8687,7 +8690,7 @@
       <c r="C81" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E81" s="4">
@@ -8734,7 +8737,7 @@
       <c r="C82" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D82" s="24">
+      <c r="D82" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E82" s="4">
@@ -8781,7 +8784,7 @@
       <c r="C83" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D83" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E83" s="4">
@@ -8828,7 +8831,7 @@
       <c r="C84" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D84" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E84" s="4">
@@ -8875,7 +8878,7 @@
       <c r="C85" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D85" s="24">
+      <c r="D85" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E85" s="4">
@@ -8922,7 +8925,7 @@
       <c r="C86" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E86" s="4">
@@ -8969,7 +8972,7 @@
       <c r="C87" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D87" s="24">
+      <c r="D87" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E87" s="4">
@@ -9016,7 +9019,7 @@
       <c r="C88" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D88" s="24">
+      <c r="D88" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E88" s="4">
@@ -9063,7 +9066,7 @@
       <c r="C89" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D89" s="24">
+      <c r="D89" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E89" s="4">
@@ -9110,7 +9113,7 @@
       <c r="C90" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E90" s="4">
@@ -9157,7 +9160,7 @@
       <c r="C91" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E91" s="4">
@@ -9204,7 +9207,7 @@
       <c r="C92" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D92" s="24">
+      <c r="D92" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E92" s="4">
@@ -9251,7 +9254,7 @@
       <c r="C93" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D93" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E93" s="4">
@@ -9298,7 +9301,7 @@
       <c r="C94" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D94" s="24">
+      <c r="D94" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E94" s="4">
@@ -9345,7 +9348,7 @@
       <c r="C95" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D95" s="24">
+      <c r="D95" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E95" s="4">
@@ -9392,7 +9395,7 @@
       <c r="C96" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D96" s="24">
+      <c r="D96" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E96" s="4">
@@ -9439,7 +9442,7 @@
       <c r="C97" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D97" s="24">
+      <c r="D97" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E97" s="4">
@@ -9486,7 +9489,7 @@
       <c r="C98" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D98" s="24">
+      <c r="D98" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E98" s="4">
@@ -9533,7 +9536,7 @@
       <c r="C99" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D99" s="24">
+      <c r="D99" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E99" s="4">
@@ -9580,7 +9583,7 @@
       <c r="C100" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E100" s="4">
@@ -9627,7 +9630,7 @@
       <c r="C101" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101" s="21">
         <v>0.45833333333333331</v>
       </c>
       <c r="E101" s="4">
@@ -9674,7 +9677,7 @@
       <c r="C102" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D102" s="24">
+      <c r="D102" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E102" s="4">
@@ -9721,7 +9724,7 @@
       <c r="C103" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D103" s="24">
+      <c r="D103" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E103" s="4">
@@ -9768,7 +9771,7 @@
       <c r="C104" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D104" s="24">
+      <c r="D104" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E104" s="4">
@@ -9815,7 +9818,7 @@
       <c r="C105" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D105" s="24">
+      <c r="D105" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E105" s="4">
@@ -9862,7 +9865,7 @@
       <c r="C106" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D106" s="24">
+      <c r="D106" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E106" s="4">
@@ -9909,7 +9912,7 @@
       <c r="C107" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D107" s="24">
+      <c r="D107" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E107" s="4">
@@ -9956,7 +9959,7 @@
       <c r="C108" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D108" s="24">
+      <c r="D108" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E108" s="4">
@@ -10003,7 +10006,7 @@
       <c r="C109" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D109" s="24">
+      <c r="D109" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E109" s="4">
@@ -10050,7 +10053,7 @@
       <c r="C110" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E110" s="4">
@@ -10097,7 +10100,7 @@
       <c r="C111" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D111" s="24">
+      <c r="D111" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E111" s="4">
@@ -10144,7 +10147,7 @@
       <c r="C112" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D112" s="24">
+      <c r="D112" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E112" s="4">
@@ -10191,7 +10194,7 @@
       <c r="C113" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D113" s="24">
+      <c r="D113" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E113" s="4">
@@ -10238,7 +10241,7 @@
       <c r="C114" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D114" s="24">
+      <c r="D114" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E114" s="4">
@@ -10285,7 +10288,7 @@
       <c r="C115" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="24">
+      <c r="D115" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E115" s="4">
@@ -10332,7 +10335,7 @@
       <c r="C116" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D116" s="24">
+      <c r="D116" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E116" s="4">
@@ -10379,7 +10382,7 @@
       <c r="C117" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D117" s="24">
+      <c r="D117" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E117" s="4">
@@ -10426,7 +10429,7 @@
       <c r="C118" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D118" s="24">
+      <c r="D118" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E118" s="4">
@@ -10473,7 +10476,7 @@
       <c r="C119" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D119" s="24">
+      <c r="D119" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E119" s="4">
@@ -10520,7 +10523,7 @@
       <c r="C120" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="24">
+      <c r="D120" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E120" s="4">
@@ -10567,7 +10570,7 @@
       <c r="C121" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D121" s="24">
+      <c r="D121" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E121" s="4">
@@ -10614,7 +10617,7 @@
       <c r="C122" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D122" s="24">
+      <c r="D122" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E122" s="4">
@@ -10661,7 +10664,7 @@
       <c r="C123" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D123" s="24">
+      <c r="D123" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E123" s="4">
@@ -10708,7 +10711,7 @@
       <c r="C124" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D124" s="24">
+      <c r="D124" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E124" s="4">
@@ -10755,7 +10758,7 @@
       <c r="C125" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D125" s="24">
+      <c r="D125" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E125" s="4">
@@ -10802,7 +10805,7 @@
       <c r="C126" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D126" s="24">
+      <c r="D126" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E126" s="4">
@@ -10849,7 +10852,7 @@
       <c r="C127" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D127" s="24">
+      <c r="D127" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E127" s="4">
@@ -10896,7 +10899,7 @@
       <c r="C128" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D128" s="24">
+      <c r="D128" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E128" s="4">
@@ -10943,7 +10946,7 @@
       <c r="C129" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D129" s="24">
+      <c r="D129" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E129" s="4">
@@ -10990,7 +10993,7 @@
       <c r="C130" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D130" s="24">
+      <c r="D130" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E130" s="4">
@@ -11037,7 +11040,7 @@
       <c r="C131" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D131" s="24">
+      <c r="D131" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E131" s="4">
@@ -11084,7 +11087,7 @@
       <c r="C132" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D132" s="24">
+      <c r="D132" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E132" s="4">
@@ -11131,7 +11134,7 @@
       <c r="C133" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D133" s="24">
+      <c r="D133" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E133" s="4">
@@ -11178,7 +11181,7 @@
       <c r="C134" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D134" s="24">
+      <c r="D134" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E134" s="4">
@@ -11225,7 +11228,7 @@
       <c r="C135" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D135" s="24">
+      <c r="D135" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E135" s="4">
@@ -11272,7 +11275,7 @@
       <c r="C136" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D136" s="24">
+      <c r="D136" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E136" s="4">
@@ -11319,7 +11322,7 @@
       <c r="C137" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D137" s="24">
+      <c r="D137" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E137" s="4">
@@ -11366,7 +11369,7 @@
       <c r="C138" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D138" s="24">
+      <c r="D138" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E138" s="4">
@@ -11413,7 +11416,7 @@
       <c r="C139" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D139" s="24">
+      <c r="D139" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E139" s="4">
@@ -11460,7 +11463,7 @@
       <c r="C140" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D140" s="24">
+      <c r="D140" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E140" s="4">
@@ -11507,7 +11510,7 @@
       <c r="C141" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D141" s="24">
+      <c r="D141" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E141" s="4">
@@ -11554,7 +11557,7 @@
       <c r="C142" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D142" s="24">
+      <c r="D142" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E142" s="4">
@@ -11601,7 +11604,7 @@
       <c r="C143" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D143" s="24">
+      <c r="D143" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E143" s="4">
@@ -11648,7 +11651,7 @@
       <c r="C144" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D144" s="24">
+      <c r="D144" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E144" s="4">
@@ -11695,7 +11698,7 @@
       <c r="C145" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D145" s="24">
+      <c r="D145" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E145" s="4">
@@ -11742,7 +11745,7 @@
       <c r="C146" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D146" s="24">
+      <c r="D146" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E146" s="4">
@@ -11789,7 +11792,7 @@
       <c r="C147" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D147" s="24">
+      <c r="D147" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E147" s="4">
@@ -11836,7 +11839,7 @@
       <c r="C148" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D148" s="24">
+      <c r="D148" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E148" s="4">
@@ -11883,7 +11886,7 @@
       <c r="C149" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D149" s="24">
+      <c r="D149" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E149" s="4">
@@ -11930,7 +11933,7 @@
       <c r="C150" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D150" s="24">
+      <c r="D150" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E150" s="4">
@@ -11977,7 +11980,7 @@
       <c r="C151" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D151" s="24">
+      <c r="D151" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E151" s="4">
@@ -12024,7 +12027,7 @@
       <c r="C152" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D152" s="24">
+      <c r="D152" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E152" s="4">
@@ -12071,7 +12074,7 @@
       <c r="C153" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D153" s="24">
+      <c r="D153" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E153" s="4">
@@ -12118,7 +12121,7 @@
       <c r="C154" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D154" s="24">
+      <c r="D154" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E154" s="4">
@@ -12165,7 +12168,7 @@
       <c r="C155" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D155" s="24">
+      <c r="D155" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E155" s="4">
@@ -12212,7 +12215,7 @@
       <c r="C156" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D156" s="24">
+      <c r="D156" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E156" s="4">
@@ -12259,7 +12262,7 @@
       <c r="C157" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D157" s="24">
+      <c r="D157" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E157" s="4">
@@ -12306,7 +12309,7 @@
       <c r="C158" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D158" s="24">
+      <c r="D158" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E158" s="4">
@@ -12353,7 +12356,7 @@
       <c r="C159" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D159" s="24">
+      <c r="D159" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E159" s="4">
@@ -12400,7 +12403,7 @@
       <c r="C160" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D160" s="24">
+      <c r="D160" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E160" s="4">
@@ -12447,7 +12450,7 @@
       <c r="C161" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D161" s="24">
+      <c r="D161" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E161" s="4">
@@ -12494,7 +12497,7 @@
       <c r="C162" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D162" s="24">
+      <c r="D162" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E162" s="4">
@@ -12541,7 +12544,7 @@
       <c r="C163" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D163" s="24">
+      <c r="D163" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E163" s="4">
@@ -12588,7 +12591,7 @@
       <c r="C164" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D164" s="24">
+      <c r="D164" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E164" s="4">
@@ -12635,7 +12638,7 @@
       <c r="C165" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D165" s="24">
+      <c r="D165" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E165" s="4">
@@ -12682,7 +12685,7 @@
       <c r="C166" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D166" s="24">
+      <c r="D166" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E166" s="4">
@@ -12729,7 +12732,7 @@
       <c r="C167" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D167" s="24">
+      <c r="D167" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E167" s="4">
@@ -12776,7 +12779,7 @@
       <c r="C168" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D168" s="24">
+      <c r="D168" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E168" s="4">
@@ -12823,7 +12826,7 @@
       <c r="C169" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D169" s="24">
+      <c r="D169" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E169" s="4">
@@ -12870,7 +12873,7 @@
       <c r="C170" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D170" s="24">
+      <c r="D170" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E170" s="4">
@@ -12917,7 +12920,7 @@
       <c r="C171" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D171" s="24">
+      <c r="D171" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E171" s="4">
@@ -12964,7 +12967,7 @@
       <c r="C172" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D172" s="24">
+      <c r="D172" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E172" s="4">
@@ -13011,7 +13014,7 @@
       <c r="C173" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D173" s="24">
+      <c r="D173" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E173" s="4">
@@ -13058,7 +13061,7 @@
       <c r="C174" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D174" s="24">
+      <c r="D174" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E174" s="4">
@@ -13105,7 +13108,7 @@
       <c r="C175" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D175" s="24">
+      <c r="D175" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E175" s="4">
@@ -13152,7 +13155,7 @@
       <c r="C176" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D176" s="24">
+      <c r="D176" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E176" s="4">
@@ -13199,7 +13202,7 @@
       <c r="C177" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D177" s="24">
+      <c r="D177" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E177" s="4">
@@ -13246,7 +13249,7 @@
       <c r="C178" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D178" s="24">
+      <c r="D178" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E178" s="4">
@@ -13293,7 +13296,7 @@
       <c r="C179" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D179" s="24">
+      <c r="D179" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E179" s="4">
@@ -13340,7 +13343,7 @@
       <c r="C180" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D180" s="24">
+      <c r="D180" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E180" s="4">
@@ -13387,7 +13390,7 @@
       <c r="C181" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D181" s="24">
+      <c r="D181" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E181" s="4">
@@ -13434,7 +13437,7 @@
       <c r="C182" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D182" s="24">
+      <c r="D182" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E182" s="4">
@@ -13481,7 +13484,7 @@
       <c r="C183" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D183" s="24">
+      <c r="D183" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E183" s="4">
@@ -13528,7 +13531,7 @@
       <c r="C184" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D184" s="24">
+      <c r="D184" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E184" s="4">
@@ -13575,7 +13578,7 @@
       <c r="C185" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D185" s="24">
+      <c r="D185" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E185" s="4">
@@ -13622,7 +13625,7 @@
       <c r="C186" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D186" s="24">
+      <c r="D186" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E186" s="4">
@@ -13669,7 +13672,7 @@
       <c r="C187" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D187" s="24">
+      <c r="D187" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E187" s="4">
@@ -13716,7 +13719,7 @@
       <c r="C188" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D188" s="24">
+      <c r="D188" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E188" s="4">
@@ -13763,7 +13766,7 @@
       <c r="C189" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D189" s="24">
+      <c r="D189" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E189" s="4">
@@ -13810,7 +13813,7 @@
       <c r="C190" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D190" s="24">
+      <c r="D190" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E190" s="4">
@@ -13857,7 +13860,7 @@
       <c r="C191" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D191" s="24">
+      <c r="D191" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E191" s="4">
@@ -13904,7 +13907,7 @@
       <c r="C192" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D192" s="24">
+      <c r="D192" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E192" s="4">
@@ -13951,7 +13954,7 @@
       <c r="C193" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D193" s="24">
+      <c r="D193" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E193" s="4">
@@ -13998,7 +14001,7 @@
       <c r="C194" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D194" s="24">
+      <c r="D194" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E194" s="4">
@@ -14045,7 +14048,7 @@
       <c r="C195" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D195" s="24">
+      <c r="D195" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E195" s="4">
@@ -14092,7 +14095,7 @@
       <c r="C196" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D196" s="24">
+      <c r="D196" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E196" s="4">
@@ -14139,7 +14142,7 @@
       <c r="C197" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D197" s="24">
+      <c r="D197" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E197" s="4">
@@ -14186,7 +14189,7 @@
       <c r="C198" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D198" s="24">
+      <c r="D198" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E198" s="4">
@@ -14233,7 +14236,7 @@
       <c r="C199" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D199" s="24">
+      <c r="D199" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E199" s="4">
@@ -14280,7 +14283,7 @@
       <c r="C200" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D200" s="24">
+      <c r="D200" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E200" s="4">
@@ -14327,7 +14330,7 @@
       <c r="C201" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D201" s="24">
+      <c r="D201" s="21">
         <v>0.47222222222222227</v>
       </c>
       <c r="E201" s="4">
@@ -14374,7 +14377,7 @@
       <c r="C202" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D202" s="24">
+      <c r="D202" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E202" s="4">
@@ -14421,7 +14424,7 @@
       <c r="C203" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D203" s="24">
+      <c r="D203" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E203" s="4">
@@ -14468,7 +14471,7 @@
       <c r="C204" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D204" s="24">
+      <c r="D204" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E204" s="4">
@@ -14515,7 +14518,7 @@
       <c r="C205" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D205" s="24">
+      <c r="D205" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E205" s="4">
@@ -14562,7 +14565,7 @@
       <c r="C206" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D206" s="24">
+      <c r="D206" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E206" s="4">
@@ -14609,7 +14612,7 @@
       <c r="C207" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D207" s="24">
+      <c r="D207" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E207" s="4">
@@ -14656,7 +14659,7 @@
       <c r="C208" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D208" s="24">
+      <c r="D208" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E208" s="4">
@@ -14703,7 +14706,7 @@
       <c r="C209" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D209" s="24">
+      <c r="D209" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E209" s="4">
@@ -14750,7 +14753,7 @@
       <c r="C210" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D210" s="24">
+      <c r="D210" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E210" s="4">
@@ -14797,7 +14800,7 @@
       <c r="C211" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D211" s="24">
+      <c r="D211" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E211" s="4">
@@ -14844,7 +14847,7 @@
       <c r="C212" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D212" s="24">
+      <c r="D212" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E212" s="4">
@@ -14891,7 +14894,7 @@
       <c r="C213" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D213" s="24">
+      <c r="D213" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E213" s="4">
@@ -14938,7 +14941,7 @@
       <c r="C214" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D214" s="24">
+      <c r="D214" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E214" s="4">
@@ -14985,7 +14988,7 @@
       <c r="C215" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D215" s="24">
+      <c r="D215" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E215" s="4">
@@ -15032,7 +15035,7 @@
       <c r="C216" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D216" s="24">
+      <c r="D216" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E216" s="4">
@@ -15079,7 +15082,7 @@
       <c r="C217" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D217" s="24">
+      <c r="D217" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E217" s="4">
@@ -15126,7 +15129,7 @@
       <c r="C218" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D218" s="24">
+      <c r="D218" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E218" s="4">
@@ -15173,7 +15176,7 @@
       <c r="C219" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D219" s="24">
+      <c r="D219" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E219" s="4">
@@ -15220,7 +15223,7 @@
       <c r="C220" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D220" s="24">
+      <c r="D220" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E220" s="4">
@@ -15267,7 +15270,7 @@
       <c r="C221" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D221" s="24">
+      <c r="D221" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E221" s="4">
@@ -15314,7 +15317,7 @@
       <c r="C222" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D222" s="24">
+      <c r="D222" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E222" s="4">
@@ -15361,7 +15364,7 @@
       <c r="C223" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D223" s="24">
+      <c r="D223" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E223" s="4">
@@ -15408,7 +15411,7 @@
       <c r="C224" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D224" s="24">
+      <c r="D224" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E224" s="4">
@@ -15455,7 +15458,7 @@
       <c r="C225" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D225" s="24">
+      <c r="D225" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E225" s="4">
@@ -15502,7 +15505,7 @@
       <c r="C226" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D226" s="24">
+      <c r="D226" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E226" s="4">
@@ -15549,7 +15552,7 @@
       <c r="C227" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D227" s="24">
+      <c r="D227" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E227" s="4">
@@ -15596,7 +15599,7 @@
       <c r="C228" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D228" s="24">
+      <c r="D228" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E228" s="4">
@@ -15643,7 +15646,7 @@
       <c r="C229" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D229" s="24">
+      <c r="D229" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E229" s="4">
@@ -15690,7 +15693,7 @@
       <c r="C230" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D230" s="24">
+      <c r="D230" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E230" s="4">
@@ -15737,7 +15740,7 @@
       <c r="C231" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D231" s="24">
+      <c r="D231" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E231" s="4">
@@ -15784,7 +15787,7 @@
       <c r="C232" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D232" s="24">
+      <c r="D232" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E232" s="4">
@@ -15831,7 +15834,7 @@
       <c r="C233" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D233" s="24">
+      <c r="D233" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E233" s="4">
@@ -15878,7 +15881,7 @@
       <c r="C234" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D234" s="24">
+      <c r="D234" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E234" s="4">
@@ -15925,7 +15928,7 @@
       <c r="C235" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D235" s="24">
+      <c r="D235" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E235" s="4">
@@ -15972,7 +15975,7 @@
       <c r="C236" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D236" s="24">
+      <c r="D236" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E236" s="4">
@@ -16019,7 +16022,7 @@
       <c r="C237" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D237" s="24">
+      <c r="D237" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E237" s="4">
@@ -16066,7 +16069,7 @@
       <c r="C238" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D238" s="24">
+      <c r="D238" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E238" s="4">
@@ -16113,7 +16116,7 @@
       <c r="C239" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D239" s="24">
+      <c r="D239" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E239" s="4">
@@ -16160,7 +16163,7 @@
       <c r="C240" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D240" s="24">
+      <c r="D240" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E240" s="4">
@@ -16207,7 +16210,7 @@
       <c r="C241" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D241" s="24">
+      <c r="D241" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E241" s="4">
@@ -16254,7 +16257,7 @@
       <c r="C242" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D242" s="24">
+      <c r="D242" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E242" s="4">
@@ -16301,7 +16304,7 @@
       <c r="C243" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D243" s="24">
+      <c r="D243" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E243" s="4">
@@ -16348,7 +16351,7 @@
       <c r="C244" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D244" s="24">
+      <c r="D244" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E244" s="4">
@@ -16395,7 +16398,7 @@
       <c r="C245" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D245" s="24">
+      <c r="D245" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E245" s="4">
@@ -16442,7 +16445,7 @@
       <c r="C246" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D246" s="24">
+      <c r="D246" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E246" s="4">
@@ -16489,7 +16492,7 @@
       <c r="C247" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D247" s="24">
+      <c r="D247" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E247" s="4">
@@ -16536,7 +16539,7 @@
       <c r="C248" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D248" s="24">
+      <c r="D248" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E248" s="4">
@@ -16583,7 +16586,7 @@
       <c r="C249" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D249" s="24">
+      <c r="D249" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E249" s="4">
@@ -16630,7 +16633,7 @@
       <c r="C250" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D250" s="24">
+      <c r="D250" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E250" s="4">
@@ -16677,7 +16680,7 @@
       <c r="C251" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D251" s="24">
+      <c r="D251" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E251" s="4">
@@ -16724,7 +16727,7 @@
       <c r="C252" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D252" s="24">
+      <c r="D252" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E252" s="4">
@@ -16771,7 +16774,7 @@
       <c r="C253" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D253" s="24">
+      <c r="D253" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E253" s="4">
@@ -16818,7 +16821,7 @@
       <c r="C254" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D254" s="24">
+      <c r="D254" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E254" s="4">
@@ -16865,7 +16868,7 @@
       <c r="C255" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D255" s="24">
+      <c r="D255" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E255" s="4">
@@ -16912,7 +16915,7 @@
       <c r="C256" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D256" s="24">
+      <c r="D256" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E256" s="4">
@@ -16959,7 +16962,7 @@
       <c r="C257" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D257" s="24">
+      <c r="D257" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E257" s="4">
@@ -17006,7 +17009,7 @@
       <c r="C258" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D258" s="24">
+      <c r="D258" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E258" s="4">
@@ -17053,7 +17056,7 @@
       <c r="C259" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D259" s="24">
+      <c r="D259" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E259" s="4">
@@ -17100,7 +17103,7 @@
       <c r="C260" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D260" s="24">
+      <c r="D260" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E260" s="4">
@@ -17147,7 +17150,7 @@
       <c r="C261" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D261" s="24">
+      <c r="D261" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E261" s="4">
@@ -17194,7 +17197,7 @@
       <c r="C262" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D262" s="24">
+      <c r="D262" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E262" s="4">
@@ -17241,7 +17244,7 @@
       <c r="C263" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D263" s="24">
+      <c r="D263" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E263" s="4">
@@ -17288,7 +17291,7 @@
       <c r="C264" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D264" s="24">
+      <c r="D264" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E264" s="4">
@@ -17335,7 +17338,7 @@
       <c r="C265" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D265" s="24">
+      <c r="D265" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E265" s="4">
@@ -17382,7 +17385,7 @@
       <c r="C266" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D266" s="24">
+      <c r="D266" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E266" s="4">
@@ -17429,7 +17432,7 @@
       <c r="C267" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D267" s="24">
+      <c r="D267" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E267" s="4">
@@ -17476,7 +17479,7 @@
       <c r="C268" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D268" s="24">
+      <c r="D268" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E268" s="4">
@@ -17523,7 +17526,7 @@
       <c r="C269" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D269" s="24">
+      <c r="D269" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E269" s="4">
@@ -17570,7 +17573,7 @@
       <c r="C270" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D270" s="24">
+      <c r="D270" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E270" s="4">
@@ -17617,7 +17620,7 @@
       <c r="C271" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D271" s="24">
+      <c r="D271" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E271" s="4">
@@ -17664,7 +17667,7 @@
       <c r="C272" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D272" s="24">
+      <c r="D272" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E272" s="4">
@@ -17711,7 +17714,7 @@
       <c r="C273" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D273" s="24">
+      <c r="D273" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E273" s="4">
@@ -17758,7 +17761,7 @@
       <c r="C274" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D274" s="24">
+      <c r="D274" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E274" s="4">
@@ -17805,7 +17808,7 @@
       <c r="C275" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D275" s="24">
+      <c r="D275" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E275" s="4">
@@ -17852,7 +17855,7 @@
       <c r="C276" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D276" s="24">
+      <c r="D276" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E276" s="4">
@@ -17899,7 +17902,7 @@
       <c r="C277" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D277" s="24">
+      <c r="D277" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E277" s="4">
@@ -17946,7 +17949,7 @@
       <c r="C278" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D278" s="24">
+      <c r="D278" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E278" s="4">
@@ -17993,7 +17996,7 @@
       <c r="C279" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D279" s="24">
+      <c r="D279" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E279" s="4">
@@ -18040,7 +18043,7 @@
       <c r="C280" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D280" s="24">
+      <c r="D280" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E280" s="4">
@@ -18087,7 +18090,7 @@
       <c r="C281" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D281" s="24">
+      <c r="D281" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E281" s="4">
@@ -18134,7 +18137,7 @@
       <c r="C282" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D282" s="24">
+      <c r="D282" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E282" s="4">
@@ -18181,7 +18184,7 @@
       <c r="C283" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D283" s="24">
+      <c r="D283" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E283" s="4">
@@ -18228,7 +18231,7 @@
       <c r="C284" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D284" s="24">
+      <c r="D284" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E284" s="4">
@@ -18275,7 +18278,7 @@
       <c r="C285" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D285" s="24">
+      <c r="D285" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E285" s="4">
@@ -18322,7 +18325,7 @@
       <c r="C286" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D286" s="24">
+      <c r="D286" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E286" s="4">
@@ -18369,7 +18372,7 @@
       <c r="C287" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D287" s="24">
+      <c r="D287" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E287" s="4">
@@ -18416,7 +18419,7 @@
       <c r="C288" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D288" s="24">
+      <c r="D288" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E288" s="4">
@@ -18463,7 +18466,7 @@
       <c r="C289" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D289" s="24">
+      <c r="D289" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E289" s="4">
@@ -18510,7 +18513,7 @@
       <c r="C290" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D290" s="24">
+      <c r="D290" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E290" s="4">
@@ -18557,7 +18560,7 @@
       <c r="C291" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D291" s="24">
+      <c r="D291" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E291" s="4">
@@ -18604,7 +18607,7 @@
       <c r="C292" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D292" s="24">
+      <c r="D292" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E292" s="4">
@@ -18651,7 +18654,7 @@
       <c r="C293" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D293" s="24">
+      <c r="D293" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E293" s="4">
@@ -18698,7 +18701,7 @@
       <c r="C294" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D294" s="24">
+      <c r="D294" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E294" s="4">
@@ -18745,7 +18748,7 @@
       <c r="C295" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D295" s="24">
+      <c r="D295" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E295" s="4">
@@ -18792,7 +18795,7 @@
       <c r="C296" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D296" s="24">
+      <c r="D296" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E296" s="4">
@@ -18839,7 +18842,7 @@
       <c r="C297" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D297" s="24">
+      <c r="D297" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E297" s="4">
@@ -18886,7 +18889,7 @@
       <c r="C298" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D298" s="24">
+      <c r="D298" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E298" s="4">
@@ -18933,7 +18936,7 @@
       <c r="C299" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D299" s="24">
+      <c r="D299" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E299" s="4">
@@ -18980,7 +18983,7 @@
       <c r="C300" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D300" s="24">
+      <c r="D300" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E300" s="4">
@@ -19027,7 +19030,7 @@
       <c r="C301" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D301" s="24">
+      <c r="D301" s="21">
         <v>0.4861111111111111</v>
       </c>
       <c r="E301" s="4">
@@ -19074,7 +19077,7 @@
       <c r="C302" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D302" s="24">
+      <c r="D302" s="21">
         <v>0.5</v>
       </c>
       <c r="E302" s="4">
@@ -19121,7 +19124,7 @@
       <c r="C303" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D303" s="24">
+      <c r="D303" s="21">
         <v>0.5</v>
       </c>
       <c r="E303" s="4">
@@ -19168,7 +19171,7 @@
       <c r="C304" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D304" s="24">
+      <c r="D304" s="21">
         <v>0.5</v>
       </c>
       <c r="E304" s="4">
@@ -19215,7 +19218,7 @@
       <c r="C305" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D305" s="24">
+      <c r="D305" s="21">
         <v>0.5</v>
       </c>
       <c r="E305" s="4">
@@ -19262,7 +19265,7 @@
       <c r="C306" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D306" s="24">
+      <c r="D306" s="21">
         <v>0.5</v>
       </c>
       <c r="E306" s="4">
@@ -19309,7 +19312,7 @@
       <c r="C307" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D307" s="24">
+      <c r="D307" s="21">
         <v>0.5</v>
       </c>
       <c r="E307" s="4">
@@ -19356,7 +19359,7 @@
       <c r="C308" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D308" s="24">
+      <c r="D308" s="21">
         <v>0.5</v>
       </c>
       <c r="E308" s="4">
@@ -19403,7 +19406,7 @@
       <c r="C309" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D309" s="24">
+      <c r="D309" s="21">
         <v>0.5</v>
       </c>
       <c r="E309" s="4">
@@ -19450,7 +19453,7 @@
       <c r="C310" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D310" s="24">
+      <c r="D310" s="21">
         <v>0.5</v>
       </c>
       <c r="E310" s="4">
@@ -19497,7 +19500,7 @@
       <c r="C311" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D311" s="24">
+      <c r="D311" s="21">
         <v>0.5</v>
       </c>
       <c r="E311" s="4">
@@ -19544,7 +19547,7 @@
       <c r="C312" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D312" s="24">
+      <c r="D312" s="21">
         <v>0.5</v>
       </c>
       <c r="E312" s="4">
@@ -19591,7 +19594,7 @@
       <c r="C313" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D313" s="24">
+      <c r="D313" s="21">
         <v>0.5</v>
       </c>
       <c r="E313" s="4">
@@ -19638,7 +19641,7 @@
       <c r="C314" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D314" s="24">
+      <c r="D314" s="21">
         <v>0.5</v>
       </c>
       <c r="E314" s="4">
@@ -19685,7 +19688,7 @@
       <c r="C315" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D315" s="24">
+      <c r="D315" s="21">
         <v>0.5</v>
       </c>
       <c r="E315" s="4">
@@ -19732,7 +19735,7 @@
       <c r="C316" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D316" s="24">
+      <c r="D316" s="21">
         <v>0.5</v>
       </c>
       <c r="E316" s="4">
@@ -19779,7 +19782,7 @@
       <c r="C317" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D317" s="24">
+      <c r="D317" s="21">
         <v>0.5</v>
       </c>
       <c r="E317" s="4">
@@ -19826,7 +19829,7 @@
       <c r="C318" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D318" s="24">
+      <c r="D318" s="21">
         <v>0.5</v>
       </c>
       <c r="E318" s="4">
@@ -19873,7 +19876,7 @@
       <c r="C319" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D319" s="24">
+      <c r="D319" s="21">
         <v>0.5</v>
       </c>
       <c r="E319" s="4">
@@ -19920,7 +19923,7 @@
       <c r="C320" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D320" s="24">
+      <c r="D320" s="21">
         <v>0.5</v>
       </c>
       <c r="E320" s="4">
@@ -19967,7 +19970,7 @@
       <c r="C321" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D321" s="24">
+      <c r="D321" s="21">
         <v>0.5</v>
       </c>
       <c r="E321" s="4">
@@ -20014,7 +20017,7 @@
       <c r="C322" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D322" s="24">
+      <c r="D322" s="21">
         <v>0.5</v>
       </c>
       <c r="E322" s="4">
@@ -20061,7 +20064,7 @@
       <c r="C323" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D323" s="24">
+      <c r="D323" s="21">
         <v>0.5</v>
       </c>
       <c r="E323" s="4">
@@ -20108,7 +20111,7 @@
       <c r="C324" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D324" s="24">
+      <c r="D324" s="21">
         <v>0.5</v>
       </c>
       <c r="E324" s="4">
@@ -20155,7 +20158,7 @@
       <c r="C325" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D325" s="24">
+      <c r="D325" s="21">
         <v>0.5</v>
       </c>
       <c r="E325" s="4">
@@ -20202,7 +20205,7 @@
       <c r="C326" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D326" s="24">
+      <c r="D326" s="21">
         <v>0.5</v>
       </c>
       <c r="E326" s="4">
@@ -20249,7 +20252,7 @@
       <c r="C327" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D327" s="24">
+      <c r="D327" s="21">
         <v>0.5</v>
       </c>
       <c r="E327" s="4">
@@ -20296,7 +20299,7 @@
       <c r="C328" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D328" s="24">
+      <c r="D328" s="21">
         <v>0.5</v>
       </c>
       <c r="E328" s="4">
@@ -20343,7 +20346,7 @@
       <c r="C329" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D329" s="24">
+      <c r="D329" s="21">
         <v>0.5</v>
       </c>
       <c r="E329" s="4">
@@ -20390,7 +20393,7 @@
       <c r="C330" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D330" s="24">
+      <c r="D330" s="21">
         <v>0.5</v>
       </c>
       <c r="E330" s="4">
@@ -20437,7 +20440,7 @@
       <c r="C331" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D331" s="24">
+      <c r="D331" s="21">
         <v>0.5</v>
       </c>
       <c r="E331" s="4">
@@ -20484,7 +20487,7 @@
       <c r="C332" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D332" s="24">
+      <c r="D332" s="21">
         <v>0.5</v>
       </c>
       <c r="E332" s="4">
@@ -20531,7 +20534,7 @@
       <c r="C333" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D333" s="24">
+      <c r="D333" s="21">
         <v>0.5</v>
       </c>
       <c r="E333" s="4">
@@ -20578,7 +20581,7 @@
       <c r="C334" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D334" s="24">
+      <c r="D334" s="21">
         <v>0.5</v>
       </c>
       <c r="E334" s="4">
@@ -20625,7 +20628,7 @@
       <c r="C335" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D335" s="24">
+      <c r="D335" s="21">
         <v>0.5</v>
       </c>
       <c r="E335" s="4">
@@ -20672,7 +20675,7 @@
       <c r="C336" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D336" s="24">
+      <c r="D336" s="21">
         <v>0.5</v>
       </c>
       <c r="E336" s="4">
@@ -20719,7 +20722,7 @@
       <c r="C337" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D337" s="24">
+      <c r="D337" s="21">
         <v>0.5</v>
       </c>
       <c r="E337" s="4">
@@ -20766,7 +20769,7 @@
       <c r="C338" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D338" s="24">
+      <c r="D338" s="21">
         <v>0.5</v>
       </c>
       <c r="E338" s="4">
@@ -20813,7 +20816,7 @@
       <c r="C339" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D339" s="24">
+      <c r="D339" s="21">
         <v>0.5</v>
       </c>
       <c r="E339" s="4">
@@ -20860,7 +20863,7 @@
       <c r="C340" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D340" s="24">
+      <c r="D340" s="21">
         <v>0.5</v>
       </c>
       <c r="E340" s="4">
@@ -20907,7 +20910,7 @@
       <c r="C341" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D341" s="24">
+      <c r="D341" s="21">
         <v>0.5</v>
       </c>
       <c r="E341" s="4">
@@ -20954,7 +20957,7 @@
       <c r="C342" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D342" s="24">
+      <c r="D342" s="21">
         <v>0.5</v>
       </c>
       <c r="E342" s="4">
@@ -21001,7 +21004,7 @@
       <c r="C343" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D343" s="24">
+      <c r="D343" s="21">
         <v>0.5</v>
       </c>
       <c r="E343" s="4">
@@ -21048,7 +21051,7 @@
       <c r="C344" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D344" s="24">
+      <c r="D344" s="21">
         <v>0.5</v>
       </c>
       <c r="E344" s="4">
@@ -21095,7 +21098,7 @@
       <c r="C345" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D345" s="24">
+      <c r="D345" s="21">
         <v>0.5</v>
       </c>
       <c r="E345" s="4">
@@ -21142,7 +21145,7 @@
       <c r="C346" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D346" s="24">
+      <c r="D346" s="21">
         <v>0.5</v>
       </c>
       <c r="E346" s="4">
@@ -21189,7 +21192,7 @@
       <c r="C347" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D347" s="24">
+      <c r="D347" s="21">
         <v>0.5</v>
       </c>
       <c r="E347" s="4">
@@ -21236,7 +21239,7 @@
       <c r="C348" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D348" s="24">
+      <c r="D348" s="21">
         <v>0.5</v>
       </c>
       <c r="E348" s="4">
@@ -21283,7 +21286,7 @@
       <c r="C349" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D349" s="24">
+      <c r="D349" s="21">
         <v>0.5</v>
       </c>
       <c r="E349" s="4">
@@ -21330,7 +21333,7 @@
       <c r="C350" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D350" s="24">
+      <c r="D350" s="21">
         <v>0.5</v>
       </c>
       <c r="E350" s="4">
@@ -21377,7 +21380,7 @@
       <c r="C351" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D351" s="24">
+      <c r="D351" s="21">
         <v>0.5</v>
       </c>
       <c r="E351" s="4">
@@ -21424,7 +21427,7 @@
       <c r="C352" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D352" s="24">
+      <c r="D352" s="21">
         <v>0.5</v>
       </c>
       <c r="E352" s="4">
@@ -21471,7 +21474,7 @@
       <c r="C353" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D353" s="24">
+      <c r="D353" s="21">
         <v>0.5</v>
       </c>
       <c r="E353" s="4">
@@ -21518,7 +21521,7 @@
       <c r="C354" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D354" s="24">
+      <c r="D354" s="21">
         <v>0.5</v>
       </c>
       <c r="E354" s="4">
@@ -21565,7 +21568,7 @@
       <c r="C355" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D355" s="24">
+      <c r="D355" s="21">
         <v>0.5</v>
       </c>
       <c r="E355" s="4">
@@ -21612,7 +21615,7 @@
       <c r="C356" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D356" s="24">
+      <c r="D356" s="21">
         <v>0.5</v>
       </c>
       <c r="E356" s="4">
@@ -21659,7 +21662,7 @@
       <c r="C357" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D357" s="24">
+      <c r="D357" s="21">
         <v>0.5</v>
       </c>
       <c r="E357" s="4">
@@ -21706,7 +21709,7 @@
       <c r="C358" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D358" s="24">
+      <c r="D358" s="21">
         <v>0.5</v>
       </c>
       <c r="E358" s="4">
@@ -21753,7 +21756,7 @@
       <c r="C359" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D359" s="24">
+      <c r="D359" s="21">
         <v>0.5</v>
       </c>
       <c r="E359" s="4">
@@ -21800,7 +21803,7 @@
       <c r="C360" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D360" s="24">
+      <c r="D360" s="21">
         <v>0.5</v>
       </c>
       <c r="E360" s="4">
@@ -21847,7 +21850,7 @@
       <c r="C361" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D361" s="24">
+      <c r="D361" s="21">
         <v>0.5</v>
       </c>
       <c r="E361" s="4">
@@ -21894,7 +21897,7 @@
       <c r="C362" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D362" s="24">
+      <c r="D362" s="21">
         <v>0.5</v>
       </c>
       <c r="E362" s="4">
@@ -21941,7 +21944,7 @@
       <c r="C363" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D363" s="24">
+      <c r="D363" s="21">
         <v>0.5</v>
       </c>
       <c r="E363" s="4">
@@ -21988,7 +21991,7 @@
       <c r="C364" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D364" s="24">
+      <c r="D364" s="21">
         <v>0.5</v>
       </c>
       <c r="E364" s="4">
@@ -22035,7 +22038,7 @@
       <c r="C365" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D365" s="24">
+      <c r="D365" s="21">
         <v>0.5</v>
       </c>
       <c r="E365" s="4">
@@ -22082,7 +22085,7 @@
       <c r="C366" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D366" s="24">
+      <c r="D366" s="21">
         <v>0.5</v>
       </c>
       <c r="E366" s="4">
@@ -22129,7 +22132,7 @@
       <c r="C367" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D367" s="24">
+      <c r="D367" s="21">
         <v>0.5</v>
       </c>
       <c r="E367" s="4">
@@ -22176,7 +22179,7 @@
       <c r="C368" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D368" s="24">
+      <c r="D368" s="21">
         <v>0.5</v>
       </c>
       <c r="E368" s="4">
@@ -22223,7 +22226,7 @@
       <c r="C369" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D369" s="24">
+      <c r="D369" s="21">
         <v>0.5</v>
       </c>
       <c r="E369" s="4">
@@ -22270,7 +22273,7 @@
       <c r="C370" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D370" s="24">
+      <c r="D370" s="21">
         <v>0.5</v>
       </c>
       <c r="E370" s="4">
@@ -22317,7 +22320,7 @@
       <c r="C371" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D371" s="24">
+      <c r="D371" s="21">
         <v>0.5</v>
       </c>
       <c r="E371" s="4">
@@ -22364,7 +22367,7 @@
       <c r="C372" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D372" s="24">
+      <c r="D372" s="21">
         <v>0.5</v>
       </c>
       <c r="E372" s="4">
@@ -22411,7 +22414,7 @@
       <c r="C373" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D373" s="24">
+      <c r="D373" s="21">
         <v>0.5</v>
       </c>
       <c r="E373" s="4">
@@ -22458,7 +22461,7 @@
       <c r="C374" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D374" s="24">
+      <c r="D374" s="21">
         <v>0.5</v>
       </c>
       <c r="E374" s="4">
@@ -22505,7 +22508,7 @@
       <c r="C375" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D375" s="24">
+      <c r="D375" s="21">
         <v>0.5</v>
       </c>
       <c r="E375" s="4">
@@ -22552,7 +22555,7 @@
       <c r="C376" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D376" s="24">
+      <c r="D376" s="21">
         <v>0.5</v>
       </c>
       <c r="E376" s="4">
@@ -22599,7 +22602,7 @@
       <c r="C377" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D377" s="24">
+      <c r="D377" s="21">
         <v>0.5</v>
       </c>
       <c r="E377" s="4">
@@ -22646,7 +22649,7 @@
       <c r="C378" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D378" s="24">
+      <c r="D378" s="21">
         <v>0.5</v>
       </c>
       <c r="E378" s="4">
@@ -22693,7 +22696,7 @@
       <c r="C379" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D379" s="24">
+      <c r="D379" s="21">
         <v>0.5</v>
       </c>
       <c r="E379" s="4">
@@ -22740,7 +22743,7 @@
       <c r="C380" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D380" s="24">
+      <c r="D380" s="21">
         <v>0.5</v>
       </c>
       <c r="E380" s="4">
@@ -22787,7 +22790,7 @@
       <c r="C381" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D381" s="24">
+      <c r="D381" s="21">
         <v>0.5</v>
       </c>
       <c r="E381" s="4">
@@ -22834,7 +22837,7 @@
       <c r="C382" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D382" s="24">
+      <c r="D382" s="21">
         <v>0.5</v>
       </c>
       <c r="E382" s="4">
@@ -22881,7 +22884,7 @@
       <c r="C383" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D383" s="24">
+      <c r="D383" s="21">
         <v>0.5</v>
       </c>
       <c r="E383" s="4">
@@ -22928,7 +22931,7 @@
       <c r="C384" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D384" s="24">
+      <c r="D384" s="21">
         <v>0.5</v>
       </c>
       <c r="E384" s="4">
@@ -22975,7 +22978,7 @@
       <c r="C385" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D385" s="24">
+      <c r="D385" s="21">
         <v>0.5</v>
       </c>
       <c r="E385" s="4">
@@ -23022,7 +23025,7 @@
       <c r="C386" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D386" s="24">
+      <c r="D386" s="21">
         <v>0.5</v>
       </c>
       <c r="E386" s="4">
@@ -23069,7 +23072,7 @@
       <c r="C387" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D387" s="24">
+      <c r="D387" s="21">
         <v>0.5</v>
       </c>
       <c r="E387" s="4">
@@ -23116,7 +23119,7 @@
       <c r="C388" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D388" s="24">
+      <c r="D388" s="21">
         <v>0.5</v>
       </c>
       <c r="E388" s="4">
@@ -23163,7 +23166,7 @@
       <c r="C389" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D389" s="24">
+      <c r="D389" s="21">
         <v>0.5</v>
       </c>
       <c r="E389" s="4">
@@ -23210,7 +23213,7 @@
       <c r="C390" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D390" s="24">
+      <c r="D390" s="21">
         <v>0.5</v>
       </c>
       <c r="E390" s="4">
@@ -23257,7 +23260,7 @@
       <c r="C391" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D391" s="24">
+      <c r="D391" s="21">
         <v>0.5</v>
       </c>
       <c r="E391" s="4">
@@ -23304,7 +23307,7 @@
       <c r="C392" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D392" s="24">
+      <c r="D392" s="21">
         <v>0.5</v>
       </c>
       <c r="E392" s="4">
@@ -23351,7 +23354,7 @@
       <c r="C393" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D393" s="24">
+      <c r="D393" s="21">
         <v>0.5</v>
       </c>
       <c r="E393" s="4">
@@ -23398,7 +23401,7 @@
       <c r="C394" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D394" s="24">
+      <c r="D394" s="21">
         <v>0.5</v>
       </c>
       <c r="E394" s="4">
@@ -23445,7 +23448,7 @@
       <c r="C395" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D395" s="24">
+      <c r="D395" s="21">
         <v>0.5</v>
       </c>
       <c r="E395" s="4">
@@ -23492,7 +23495,7 @@
       <c r="C396" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D396" s="24">
+      <c r="D396" s="21">
         <v>0.5</v>
       </c>
       <c r="E396" s="4">
@@ -23539,7 +23542,7 @@
       <c r="C397" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D397" s="24">
+      <c r="D397" s="21">
         <v>0.5</v>
       </c>
       <c r="E397" s="4">
@@ -23586,7 +23589,7 @@
       <c r="C398" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D398" s="24">
+      <c r="D398" s="21">
         <v>0.5</v>
       </c>
       <c r="E398" s="4">
@@ -23633,7 +23636,7 @@
       <c r="C399" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D399" s="24">
+      <c r="D399" s="21">
         <v>0.5</v>
       </c>
       <c r="E399" s="4">
@@ -23680,7 +23683,7 @@
       <c r="C400" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D400" s="24">
+      <c r="D400" s="21">
         <v>0.5</v>
       </c>
       <c r="E400" s="4">
@@ -23727,7 +23730,7 @@
       <c r="C401" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D401" s="24">
+      <c r="D401" s="21">
         <v>0.5</v>
       </c>
       <c r="E401" s="4">
@@ -23774,7 +23777,7 @@
       <c r="C402" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D402" s="24">
+      <c r="D402" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E402" s="4">
@@ -23821,7 +23824,7 @@
       <c r="C403" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D403" s="24">
+      <c r="D403" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E403" s="4">
@@ -23868,7 +23871,7 @@
       <c r="C404" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D404" s="24">
+      <c r="D404" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E404" s="4">
@@ -23915,7 +23918,7 @@
       <c r="C405" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D405" s="24">
+      <c r="D405" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E405" s="4">
@@ -23962,7 +23965,7 @@
       <c r="C406" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D406" s="24">
+      <c r="D406" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E406" s="4">
@@ -24009,7 +24012,7 @@
       <c r="C407" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D407" s="24">
+      <c r="D407" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E407" s="4">
@@ -24056,7 +24059,7 @@
       <c r="C408" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D408" s="24">
+      <c r="D408" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E408" s="4">
@@ -24103,7 +24106,7 @@
       <c r="C409" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D409" s="24">
+      <c r="D409" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E409" s="4">
@@ -24150,7 +24153,7 @@
       <c r="C410" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D410" s="24">
+      <c r="D410" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E410" s="4">
@@ -24197,7 +24200,7 @@
       <c r="C411" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D411" s="24">
+      <c r="D411" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E411" s="4">
@@ -24244,7 +24247,7 @@
       <c r="C412" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D412" s="24">
+      <c r="D412" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E412" s="4">
@@ -24291,7 +24294,7 @@
       <c r="C413" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D413" s="24">
+      <c r="D413" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E413" s="4">
@@ -24338,7 +24341,7 @@
       <c r="C414" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D414" s="24">
+      <c r="D414" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E414" s="4">
@@ -24385,7 +24388,7 @@
       <c r="C415" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D415" s="24">
+      <c r="D415" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E415" s="4">
@@ -24432,7 +24435,7 @@
       <c r="C416" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D416" s="24">
+      <c r="D416" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E416" s="4">
@@ -24479,7 +24482,7 @@
       <c r="C417" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D417" s="24">
+      <c r="D417" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E417" s="4">
@@ -24526,7 +24529,7 @@
       <c r="C418" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D418" s="24">
+      <c r="D418" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E418" s="4">
@@ -24573,7 +24576,7 @@
       <c r="C419" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D419" s="24">
+      <c r="D419" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E419" s="4">
@@ -24620,7 +24623,7 @@
       <c r="C420" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D420" s="24">
+      <c r="D420" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E420" s="4">
@@ -24667,7 +24670,7 @@
       <c r="C421" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D421" s="24">
+      <c r="D421" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E421" s="4">
@@ -24714,7 +24717,7 @@
       <c r="C422" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D422" s="24">
+      <c r="D422" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E422" s="4">
@@ -24761,7 +24764,7 @@
       <c r="C423" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D423" s="24">
+      <c r="D423" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E423" s="4">
@@ -24808,7 +24811,7 @@
       <c r="C424" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D424" s="24">
+      <c r="D424" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E424" s="4">
@@ -24855,7 +24858,7 @@
       <c r="C425" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D425" s="24">
+      <c r="D425" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E425" s="4">
@@ -24902,7 +24905,7 @@
       <c r="C426" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D426" s="24">
+      <c r="D426" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E426" s="4">
@@ -24949,7 +24952,7 @@
       <c r="C427" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D427" s="24">
+      <c r="D427" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E427" s="4">
@@ -24996,7 +24999,7 @@
       <c r="C428" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D428" s="24">
+      <c r="D428" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E428" s="4">
@@ -25043,7 +25046,7 @@
       <c r="C429" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D429" s="24">
+      <c r="D429" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E429" s="4">
@@ -25090,7 +25093,7 @@
       <c r="C430" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D430" s="24">
+      <c r="D430" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E430" s="4">
@@ -25137,7 +25140,7 @@
       <c r="C431" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D431" s="24">
+      <c r="D431" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E431" s="4">
@@ -25184,7 +25187,7 @@
       <c r="C432" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D432" s="24">
+      <c r="D432" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E432" s="4">
@@ -25231,7 +25234,7 @@
       <c r="C433" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D433" s="24">
+      <c r="D433" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E433" s="4">
@@ -25278,7 +25281,7 @@
       <c r="C434" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D434" s="24">
+      <c r="D434" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E434" s="4">
@@ -25325,7 +25328,7 @@
       <c r="C435" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D435" s="24">
+      <c r="D435" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E435" s="4">
@@ -25372,7 +25375,7 @@
       <c r="C436" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D436" s="24">
+      <c r="D436" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E436" s="4">
@@ -25419,7 +25422,7 @@
       <c r="C437" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D437" s="24">
+      <c r="D437" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E437" s="4">
@@ -25466,7 +25469,7 @@
       <c r="C438" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D438" s="24">
+      <c r="D438" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E438" s="4">
@@ -25513,7 +25516,7 @@
       <c r="C439" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D439" s="24">
+      <c r="D439" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E439" s="4">
@@ -25560,7 +25563,7 @@
       <c r="C440" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D440" s="24">
+      <c r="D440" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E440" s="4">
@@ -25607,7 +25610,7 @@
       <c r="C441" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D441" s="24">
+      <c r="D441" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E441" s="4">
@@ -25654,7 +25657,7 @@
       <c r="C442" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D442" s="24">
+      <c r="D442" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E442" s="4">
@@ -25701,7 +25704,7 @@
       <c r="C443" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D443" s="24">
+      <c r="D443" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E443" s="4">
@@ -25748,7 +25751,7 @@
       <c r="C444" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D444" s="24">
+      <c r="D444" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E444" s="4">
@@ -25795,7 +25798,7 @@
       <c r="C445" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D445" s="24">
+      <c r="D445" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E445" s="4">
@@ -25842,7 +25845,7 @@
       <c r="C446" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D446" s="24">
+      <c r="D446" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E446" s="4">
@@ -25889,7 +25892,7 @@
       <c r="C447" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D447" s="24">
+      <c r="D447" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E447" s="4">
@@ -25936,7 +25939,7 @@
       <c r="C448" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D448" s="24">
+      <c r="D448" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E448" s="4">
@@ -25983,7 +25986,7 @@
       <c r="C449" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D449" s="24">
+      <c r="D449" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E449" s="4">
@@ -26030,7 +26033,7 @@
       <c r="C450" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D450" s="24">
+      <c r="D450" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E450" s="4">
@@ -26077,7 +26080,7 @@
       <c r="C451" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D451" s="24">
+      <c r="D451" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E451" s="4">
@@ -26124,7 +26127,7 @@
       <c r="C452" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D452" s="24">
+      <c r="D452" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E452" s="4">
@@ -26171,7 +26174,7 @@
       <c r="C453" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D453" s="24">
+      <c r="D453" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E453" s="4">
@@ -26218,7 +26221,7 @@
       <c r="C454" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D454" s="24">
+      <c r="D454" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E454" s="4">
@@ -26265,7 +26268,7 @@
       <c r="C455" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D455" s="24">
+      <c r="D455" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E455" s="4">
@@ -26312,7 +26315,7 @@
       <c r="C456" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D456" s="24">
+      <c r="D456" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E456" s="4">
@@ -26359,7 +26362,7 @@
       <c r="C457" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D457" s="24">
+      <c r="D457" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E457" s="4">
@@ -26406,7 +26409,7 @@
       <c r="C458" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D458" s="24">
+      <c r="D458" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E458" s="4">
@@ -26453,7 +26456,7 @@
       <c r="C459" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D459" s="24">
+      <c r="D459" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E459" s="4">
@@ -26500,7 +26503,7 @@
       <c r="C460" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D460" s="24">
+      <c r="D460" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E460" s="4">
@@ -26547,7 +26550,7 @@
       <c r="C461" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D461" s="24">
+      <c r="D461" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E461" s="4">
@@ -26594,7 +26597,7 @@
       <c r="C462" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D462" s="24">
+      <c r="D462" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E462" s="4">
@@ -26641,7 +26644,7 @@
       <c r="C463" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D463" s="24">
+      <c r="D463" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E463" s="4">
@@ -26688,7 +26691,7 @@
       <c r="C464" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D464" s="24">
+      <c r="D464" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E464" s="4">
@@ -26735,7 +26738,7 @@
       <c r="C465" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D465" s="24">
+      <c r="D465" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E465" s="4">
@@ -26782,7 +26785,7 @@
       <c r="C466" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D466" s="24">
+      <c r="D466" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E466" s="4">
@@ -26829,7 +26832,7 @@
       <c r="C467" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D467" s="24">
+      <c r="D467" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E467" s="4">
@@ -26876,7 +26879,7 @@
       <c r="C468" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D468" s="24">
+      <c r="D468" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E468" s="4">
@@ -26923,7 +26926,7 @@
       <c r="C469" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D469" s="24">
+      <c r="D469" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E469" s="4">
@@ -26970,7 +26973,7 @@
       <c r="C470" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D470" s="24">
+      <c r="D470" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E470" s="4">
@@ -27017,7 +27020,7 @@
       <c r="C471" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D471" s="24">
+      <c r="D471" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E471" s="4">
@@ -27064,7 +27067,7 @@
       <c r="C472" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D472" s="24">
+      <c r="D472" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E472" s="4">
@@ -27111,7 +27114,7 @@
       <c r="C473" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D473" s="24">
+      <c r="D473" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E473" s="4">
@@ -27158,7 +27161,7 @@
       <c r="C474" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D474" s="24">
+      <c r="D474" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E474" s="4">
@@ -27205,7 +27208,7 @@
       <c r="C475" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D475" s="24">
+      <c r="D475" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E475" s="4">
@@ -27252,7 +27255,7 @@
       <c r="C476" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D476" s="24">
+      <c r="D476" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E476" s="4">
@@ -27299,7 +27302,7 @@
       <c r="C477" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D477" s="24">
+      <c r="D477" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E477" s="4">
@@ -27346,7 +27349,7 @@
       <c r="C478" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D478" s="24">
+      <c r="D478" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E478" s="4">
@@ -27393,7 +27396,7 @@
       <c r="C479" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D479" s="24">
+      <c r="D479" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E479" s="4">
@@ -27440,7 +27443,7 @@
       <c r="C480" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D480" s="24">
+      <c r="D480" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E480" s="4">
@@ -27487,7 +27490,7 @@
       <c r="C481" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D481" s="24">
+      <c r="D481" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E481" s="4">
@@ -27534,7 +27537,7 @@
       <c r="C482" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D482" s="24">
+      <c r="D482" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E482" s="4">
@@ -27581,7 +27584,7 @@
       <c r="C483" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D483" s="24">
+      <c r="D483" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E483" s="4">
@@ -27628,7 +27631,7 @@
       <c r="C484" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D484" s="24">
+      <c r="D484" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E484" s="4">
@@ -27675,7 +27678,7 @@
       <c r="C485" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D485" s="24">
+      <c r="D485" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E485" s="4">
@@ -27722,7 +27725,7 @@
       <c r="C486" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D486" s="24">
+      <c r="D486" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E486" s="4">
@@ -27769,7 +27772,7 @@
       <c r="C487" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D487" s="24">
+      <c r="D487" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E487" s="4">
@@ -27816,7 +27819,7 @@
       <c r="C488" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D488" s="24">
+      <c r="D488" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E488" s="4">
@@ -27863,7 +27866,7 @@
       <c r="C489" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D489" s="24">
+      <c r="D489" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E489" s="4">
@@ -27910,7 +27913,7 @@
       <c r="C490" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D490" s="24">
+      <c r="D490" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E490" s="4">
@@ -27957,7 +27960,7 @@
       <c r="C491" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D491" s="24">
+      <c r="D491" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E491" s="4">
@@ -28004,7 +28007,7 @@
       <c r="C492" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D492" s="24">
+      <c r="D492" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E492" s="4">
@@ -28051,7 +28054,7 @@
       <c r="C493" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D493" s="24">
+      <c r="D493" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E493" s="4">
@@ -28098,7 +28101,7 @@
       <c r="C494" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D494" s="24">
+      <c r="D494" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E494" s="4">
@@ -28145,7 +28148,7 @@
       <c r="C495" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D495" s="24">
+      <c r="D495" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E495" s="4">
@@ -28192,7 +28195,7 @@
       <c r="C496" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D496" s="24">
+      <c r="D496" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E496" s="4">
@@ -28239,7 +28242,7 @@
       <c r="C497" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D497" s="24">
+      <c r="D497" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E497" s="4">
@@ -28286,7 +28289,7 @@
       <c r="C498" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D498" s="24">
+      <c r="D498" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E498" s="4">
@@ -28333,7 +28336,7 @@
       <c r="C499" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D499" s="24">
+      <c r="D499" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E499" s="4">
@@ -28380,7 +28383,7 @@
       <c r="C500" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D500" s="24">
+      <c r="D500" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E500" s="4">
@@ -28427,7 +28430,7 @@
       <c r="C501" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D501" s="24">
+      <c r="D501" s="21">
         <v>0.51041666666666663</v>
       </c>
       <c r="E501" s="4">
@@ -28474,7 +28477,7 @@
       <c r="C502" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D502" s="24">
+      <c r="D502" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E502" s="4">
@@ -28521,7 +28524,7 @@
       <c r="C503" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D503" s="24">
+      <c r="D503" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E503" s="4">
@@ -28568,7 +28571,7 @@
       <c r="C504" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D504" s="24">
+      <c r="D504" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E504" s="4">
@@ -28615,7 +28618,7 @@
       <c r="C505" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D505" s="24">
+      <c r="D505" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E505" s="4">
@@ -28662,7 +28665,7 @@
       <c r="C506" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D506" s="24">
+      <c r="D506" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E506" s="4">
@@ -28709,7 +28712,7 @@
       <c r="C507" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D507" s="24">
+      <c r="D507" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E507" s="4">
@@ -28756,7 +28759,7 @@
       <c r="C508" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D508" s="24">
+      <c r="D508" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E508" s="4">
@@ -28803,7 +28806,7 @@
       <c r="C509" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D509" s="24">
+      <c r="D509" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E509" s="4">
@@ -28850,7 +28853,7 @@
       <c r="C510" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D510" s="24">
+      <c r="D510" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E510" s="4">
@@ -28897,7 +28900,7 @@
       <c r="C511" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D511" s="24">
+      <c r="D511" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E511" s="4">
@@ -28944,7 +28947,7 @@
       <c r="C512" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D512" s="24">
+      <c r="D512" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E512" s="4">
@@ -28991,7 +28994,7 @@
       <c r="C513" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D513" s="24">
+      <c r="D513" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E513" s="4">
@@ -29038,7 +29041,7 @@
       <c r="C514" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D514" s="24">
+      <c r="D514" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E514" s="4">
@@ -29085,7 +29088,7 @@
       <c r="C515" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D515" s="24">
+      <c r="D515" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E515" s="4">
@@ -29132,7 +29135,7 @@
       <c r="C516" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D516" s="24">
+      <c r="D516" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E516" s="4">
@@ -29179,7 +29182,7 @@
       <c r="C517" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D517" s="24">
+      <c r="D517" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E517" s="4">
@@ -29226,7 +29229,7 @@
       <c r="C518" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D518" s="24">
+      <c r="D518" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E518" s="4">
@@ -29273,7 +29276,7 @@
       <c r="C519" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D519" s="24">
+      <c r="D519" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E519" s="4">
@@ -29320,7 +29323,7 @@
       <c r="C520" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D520" s="24">
+      <c r="D520" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E520" s="4">
@@ -29367,7 +29370,7 @@
       <c r="C521" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D521" s="24">
+      <c r="D521" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E521" s="4">
@@ -29414,7 +29417,7 @@
       <c r="C522" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D522" s="24">
+      <c r="D522" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E522" s="4">
@@ -29461,7 +29464,7 @@
       <c r="C523" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D523" s="24">
+      <c r="D523" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E523" s="4">
@@ -29508,7 +29511,7 @@
       <c r="C524" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D524" s="24">
+      <c r="D524" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E524" s="4">
@@ -29555,7 +29558,7 @@
       <c r="C525" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D525" s="24">
+      <c r="D525" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E525" s="4">
@@ -29602,7 +29605,7 @@
       <c r="C526" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D526" s="24">
+      <c r="D526" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E526" s="4">
@@ -29649,7 +29652,7 @@
       <c r="C527" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D527" s="24">
+      <c r="D527" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E527" s="4">
@@ -29696,7 +29699,7 @@
       <c r="C528" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D528" s="24">
+      <c r="D528" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E528" s="4">
@@ -29743,7 +29746,7 @@
       <c r="C529" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D529" s="24">
+      <c r="D529" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E529" s="4">
@@ -29790,7 +29793,7 @@
       <c r="C530" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D530" s="24">
+      <c r="D530" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E530" s="4">
@@ -29837,7 +29840,7 @@
       <c r="C531" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D531" s="24">
+      <c r="D531" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E531" s="4">
@@ -29884,7 +29887,7 @@
       <c r="C532" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D532" s="24">
+      <c r="D532" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E532" s="4">
@@ -29931,7 +29934,7 @@
       <c r="C533" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D533" s="24">
+      <c r="D533" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E533" s="4">
@@ -29978,7 +29981,7 @@
       <c r="C534" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D534" s="24">
+      <c r="D534" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E534" s="4">
@@ -30025,7 +30028,7 @@
       <c r="C535" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D535" s="24">
+      <c r="D535" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E535" s="4">
@@ -30072,7 +30075,7 @@
       <c r="C536" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D536" s="24">
+      <c r="D536" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E536" s="4">
@@ -30119,7 +30122,7 @@
       <c r="C537" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D537" s="24">
+      <c r="D537" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E537" s="4">
@@ -30166,7 +30169,7 @@
       <c r="C538" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D538" s="24">
+      <c r="D538" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E538" s="4">
@@ -30213,7 +30216,7 @@
       <c r="C539" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D539" s="24">
+      <c r="D539" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E539" s="4">
@@ -30260,7 +30263,7 @@
       <c r="C540" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D540" s="24">
+      <c r="D540" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E540" s="4">
@@ -30307,7 +30310,7 @@
       <c r="C541" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D541" s="24">
+      <c r="D541" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E541" s="4">
@@ -30354,7 +30357,7 @@
       <c r="C542" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D542" s="24">
+      <c r="D542" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E542" s="4">
@@ -30401,7 +30404,7 @@
       <c r="C543" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D543" s="24">
+      <c r="D543" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E543" s="4">
@@ -30448,7 +30451,7 @@
       <c r="C544" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D544" s="24">
+      <c r="D544" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E544" s="4">
@@ -30495,7 +30498,7 @@
       <c r="C545" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D545" s="24">
+      <c r="D545" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E545" s="4">
@@ -30542,7 +30545,7 @@
       <c r="C546" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D546" s="24">
+      <c r="D546" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E546" s="4">
@@ -30589,7 +30592,7 @@
       <c r="C547" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D547" s="24">
+      <c r="D547" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E547" s="4">
@@ -30636,7 +30639,7 @@
       <c r="C548" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D548" s="24">
+      <c r="D548" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E548" s="4">
@@ -30683,7 +30686,7 @@
       <c r="C549" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D549" s="24">
+      <c r="D549" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E549" s="4">
@@ -30730,7 +30733,7 @@
       <c r="C550" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D550" s="24">
+      <c r="D550" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E550" s="4">
@@ -30777,7 +30780,7 @@
       <c r="C551" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D551" s="24">
+      <c r="D551" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E551" s="4">
@@ -30824,7 +30827,7 @@
       <c r="C552" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D552" s="24">
+      <c r="D552" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E552" s="4">
@@ -30871,7 +30874,7 @@
       <c r="C553" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D553" s="24">
+      <c r="D553" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E553" s="4">
@@ -30918,7 +30921,7 @@
       <c r="C554" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D554" s="24">
+      <c r="D554" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E554" s="4">
@@ -30965,7 +30968,7 @@
       <c r="C555" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D555" s="24">
+      <c r="D555" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E555" s="4">
@@ -31012,7 +31015,7 @@
       <c r="C556" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D556" s="24">
+      <c r="D556" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E556" s="4">
@@ -31059,7 +31062,7 @@
       <c r="C557" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D557" s="24">
+      <c r="D557" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E557" s="4">
@@ -31106,7 +31109,7 @@
       <c r="C558" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D558" s="24">
+      <c r="D558" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E558" s="4">
@@ -31153,7 +31156,7 @@
       <c r="C559" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D559" s="24">
+      <c r="D559" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E559" s="4">
@@ -31200,7 +31203,7 @@
       <c r="C560" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D560" s="24">
+      <c r="D560" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E560" s="4">
@@ -31247,7 +31250,7 @@
       <c r="C561" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D561" s="24">
+      <c r="D561" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E561" s="4">
@@ -31294,7 +31297,7 @@
       <c r="C562" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D562" s="24">
+      <c r="D562" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E562" s="4">
@@ -31341,7 +31344,7 @@
       <c r="C563" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D563" s="24">
+      <c r="D563" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E563" s="4">
@@ -31388,7 +31391,7 @@
       <c r="C564" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D564" s="24">
+      <c r="D564" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E564" s="4">
@@ -31435,7 +31438,7 @@
       <c r="C565" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D565" s="24">
+      <c r="D565" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E565" s="4">
@@ -31482,7 +31485,7 @@
       <c r="C566" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D566" s="24">
+      <c r="D566" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E566" s="4">
@@ -31529,7 +31532,7 @@
       <c r="C567" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D567" s="24">
+      <c r="D567" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E567" s="4">
@@ -31576,7 +31579,7 @@
       <c r="C568" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D568" s="24">
+      <c r="D568" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E568" s="4">
@@ -31623,7 +31626,7 @@
       <c r="C569" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D569" s="24">
+      <c r="D569" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E569" s="4">
@@ -31670,7 +31673,7 @@
       <c r="C570" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D570" s="24">
+      <c r="D570" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E570" s="4">
@@ -31717,7 +31720,7 @@
       <c r="C571" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D571" s="24">
+      <c r="D571" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E571" s="4">
@@ -31764,7 +31767,7 @@
       <c r="C572" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D572" s="24">
+      <c r="D572" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E572" s="4">
@@ -31811,7 +31814,7 @@
       <c r="C573" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D573" s="24">
+      <c r="D573" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E573" s="4">
@@ -31858,7 +31861,7 @@
       <c r="C574" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D574" s="24">
+      <c r="D574" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E574" s="4">
@@ -31905,7 +31908,7 @@
       <c r="C575" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D575" s="24">
+      <c r="D575" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E575" s="4">
@@ -31952,7 +31955,7 @@
       <c r="C576" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D576" s="24">
+      <c r="D576" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E576" s="4">
@@ -31999,7 +32002,7 @@
       <c r="C577" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D577" s="24">
+      <c r="D577" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E577" s="4">
@@ -32046,7 +32049,7 @@
       <c r="C578" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D578" s="24">
+      <c r="D578" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E578" s="4">
@@ -32093,7 +32096,7 @@
       <c r="C579" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D579" s="24">
+      <c r="D579" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E579" s="4">
@@ -32140,7 +32143,7 @@
       <c r="C580" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D580" s="24">
+      <c r="D580" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E580" s="4">
@@ -32187,7 +32190,7 @@
       <c r="C581" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D581" s="24">
+      <c r="D581" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E581" s="4">
@@ -32234,7 +32237,7 @@
       <c r="C582" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D582" s="24">
+      <c r="D582" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E582" s="4">
@@ -32281,7 +32284,7 @@
       <c r="C583" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D583" s="24">
+      <c r="D583" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E583" s="4">
@@ -32328,7 +32331,7 @@
       <c r="C584" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D584" s="24">
+      <c r="D584" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E584" s="4">
@@ -32375,7 +32378,7 @@
       <c r="C585" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D585" s="24">
+      <c r="D585" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E585" s="4">
@@ -32422,7 +32425,7 @@
       <c r="C586" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D586" s="24">
+      <c r="D586" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E586" s="4">
@@ -32469,7 +32472,7 @@
       <c r="C587" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D587" s="24">
+      <c r="D587" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E587" s="4">
@@ -32516,7 +32519,7 @@
       <c r="C588" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D588" s="24">
+      <c r="D588" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E588" s="4">
@@ -32563,7 +32566,7 @@
       <c r="C589" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D589" s="24">
+      <c r="D589" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E589" s="4">
@@ -32610,7 +32613,7 @@
       <c r="C590" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D590" s="24">
+      <c r="D590" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E590" s="4">
@@ -32657,7 +32660,7 @@
       <c r="C591" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D591" s="24">
+      <c r="D591" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E591" s="4">
@@ -32704,7 +32707,7 @@
       <c r="C592" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D592" s="24">
+      <c r="D592" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E592" s="4">
@@ -32751,7 +32754,7 @@
       <c r="C593" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D593" s="24">
+      <c r="D593" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E593" s="4">
@@ -32798,7 +32801,7 @@
       <c r="C594" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D594" s="24">
+      <c r="D594" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E594" s="4">
@@ -32845,7 +32848,7 @@
       <c r="C595" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D595" s="24">
+      <c r="D595" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E595" s="4">
@@ -32892,7 +32895,7 @@
       <c r="C596" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D596" s="24">
+      <c r="D596" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E596" s="4">
@@ -32939,7 +32942,7 @@
       <c r="C597" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D597" s="24">
+      <c r="D597" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E597" s="4">
@@ -32986,7 +32989,7 @@
       <c r="C598" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D598" s="24">
+      <c r="D598" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E598" s="4">
@@ -33033,7 +33036,7 @@
       <c r="C599" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D599" s="24">
+      <c r="D599" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E599" s="4">
@@ -33080,7 +33083,7 @@
       <c r="C600" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D600" s="24">
+      <c r="D600" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E600" s="4">
@@ -33127,7 +33130,7 @@
       <c r="C601" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D601" s="24">
+      <c r="D601" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E601" s="4">
@@ -34567,8 +34570,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34796,7 +34799,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I7" s="14">
         <v>0</v>
